--- a/docs/宝石介绍.xlsx
+++ b/docs/宝石介绍.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96213\my\Unity Workplace\FoodVSMouse\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E021683C-FB74-407C-9B6C-ADCABDDF1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065C25A-6CE3-43D4-B406-0FB8716306D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,30 +47,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使全场友方单位获得100%减伤，每秒回复${healValue}点生命值，持续${t}秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结全场老鼠${t}秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轰炸宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定点投放五个炸弹，每个炸弹造成${dmg}点爆破灰烬伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激光宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每行发射一道激光，对激光穿过的老鼠造成${dmg}点爆破灰烬伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫眼宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,23 +63,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星光宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一颗坠星，对接触的敌方单位造成${dmg}点伤害，然后回复(本次造成的伤害之和*${rate})点火苗能量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回火宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转化宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量转化：每只老鼠在阵亡时提供${num}点火苗。</t>
+    <t>强力宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留空列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使当前全场友方单位获得${defence=(100)}%减伤，每秒回复${healValue=(10)}点生命值，持续${t=(5)}秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定点投放五个炸弹，每个炸弹造成${dmg=(900)}点爆破灰烬伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每行发射一道激光，对激光穿过的老鼠造成${dmg=(900)}点爆破灰烬伤害与持续${t=(5)}秒的晕眩效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使当前全场友方单位攻击力提高${attackPercent=(25)}%基础攻击力，持续${t=(12)}秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使当前全场友方单位攻击速度提高${attackSpeedPercent=(25)}%基础攻击速度，持续${t=(12)}秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放冰雾，降低敌方单位${decMovePercent=(75)}%总移动速度与${decAttackSpeedPercent=(75)}%总攻击速度，持续${t=(15)}秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -436,7 +444,7 @@
     <col min="3" max="3" width="77.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +454,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -455,10 +472,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -466,70 +489,98 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>450</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
